--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$25</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$45</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>注　文　書</t>
   </si>
@@ -233,6 +233,10 @@
   </si>
   <si>
     <t>⑥ 振込手数料は受託者負担とさせて頂きます。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$CALCULATE_TYPE_COMMENT$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -961,11 +965,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -987,17 +991,17 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="19.5">
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="6"/>
       <c r="F6" s="36" t="s">
         <v>2</v>
@@ -1022,7 +1026,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="19.5">
+    <row r="10" spans="1:9" ht="14.25">
       <c r="F10" s="38" t="s">
         <v>14</v>
       </c>
@@ -1196,7 +1200,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1206,40 +1210,38 @@
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="44" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="27" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="41" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
@@ -1248,37 +1250,39 @@
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="42" t="s">
+    <row r="31" spans="1:9" ht="27" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" ht="18.75" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
@@ -1288,12 +1292,10 @@
       <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="15"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1303,10 +1305,12 @@
       <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="15"/>
       <c r="C35" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1315,11 +1319,11 @@
       <c r="H35" s="31"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1332,7 +1336,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1342,41 +1346,43 @@
       <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="46" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="48" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="49"/>
@@ -1422,14 +1428,25 @@
       <c r="H44" s="49"/>
       <c r="I44" s="49"/>
     </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="49"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="49"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A39:I44"/>
+    <mergeCell ref="A40:I45"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$25</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$46</definedName>
   </definedNames>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>注　文　書</t>
   </si>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>{$CALCULATE_TYPE_COMMENT$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -965,7 +969,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1217,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="43" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1223,40 +1227,38 @@
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="44" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:9" ht="27" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="41" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -1265,37 +1267,39 @@
       <c r="H31" s="27"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="42" t="s">
+    <row r="32" spans="1:9" ht="27" customHeight="1">
+      <c r="A32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="18.75" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1305,12 +1309,10 @@
       <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A35" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="15"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1320,10 +1322,12 @@
       <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="15"/>
       <c r="C36" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1332,11 +1336,11 @@
       <c r="H36" s="31"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1">
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1349,7 +1353,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="45" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1359,41 +1363,43 @@
       <c r="I38" s="32"/>
     </row>
     <row r="39" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="46" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="48" t="s">
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="49"/>
@@ -1439,10 +1445,21 @@
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
     </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A40:I45"/>
+    <mergeCell ref="A41:I46"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="510" windowWidth="18015" windowHeight="7650"/>
+    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>③ 請求書は毎月作業実績表（現場の承認印）を添付の上、翌月5日迄に送付する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>④ 延長/中止の場合には、両者協議の上、継続検討を行うものとする。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -241,6 +237,10 @@
   </si>
   <si>
     <t>{$ALLOWANCE_OTHER_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -973,7 +973,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -995,17 +995,17 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19.8">
       <c r="A6" s="6"/>
       <c r="F6" s="36" t="s">
         <v>2</v>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="14.25">
+    <row r="10" spans="1:9" ht="19.8">
       <c r="F10" s="38" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1">
+    <row r="15" spans="1:9" ht="18.899999999999999" customHeight="1">
       <c r="A15" s="1"/>
       <c r="G15" s="4"/>
     </row>
@@ -1104,7 +1104,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1150,7 +1150,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1163,7 +1163,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1174,11 +1174,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1191,7 +1191,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1204,7 +1204,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1217,7 +1217,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1230,7 +1230,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -1323,11 +1323,11 @@
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="45" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1340,7 +1340,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1353,7 +1353,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1366,7 +1366,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1379,7 +1379,7 @@
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -1463,7 +1463,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454AFE8-422C-4F54-AF00-2EBE9AF3CA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +73,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>TEL:{$TEL$}　FAX:03-6809-3238</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>{$AUTHOR_FIRST_NAME$}</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -243,11 +245,15 @@
     <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>TEL:{$TEL$}　FAX:03-5809-1069</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -674,6 +680,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -965,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -985,7 +994,7 @@
     </row>
     <row r="2" spans="1:9" ht="27" customHeight="1">
       <c r="I2" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1">
@@ -1002,7 +1011,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="19.8">
@@ -1032,7 +1041,7 @@
     </row>
     <row r="10" spans="1:9" ht="19.8">
       <c r="F10" s="38" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1051,7 +1060,7 @@
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="G14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.899999999999999" customHeight="1">
@@ -1065,11 +1074,11 @@
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1084,7 +1093,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1099,16 +1108,16 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="19"/>
     </row>
@@ -1118,7 +1127,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="19"/>
@@ -1127,17 +1136,17 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1150,7 +1159,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1163,7 +1172,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1174,11 +1183,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1191,7 +1200,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1204,7 +1213,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1217,7 +1226,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1230,7 +1239,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1243,7 +1252,7 @@
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
@@ -1254,11 +1263,11 @@
     </row>
     <row r="31" spans="1:9" ht="27" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
@@ -1273,7 +1282,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -1286,7 +1295,7 @@
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -1299,7 +1308,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1312,7 +1321,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1323,11 +1332,11 @@
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1340,7 +1349,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1353,7 +1362,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1366,7 +1375,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1379,7 +1388,7 @@
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -1390,7 +1399,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454AFE8-422C-4F54-AF00-2EBE9AF3CA7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37CD1E9-DFD5-4060-B670-9446D07C4EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3336" yWindow="696" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,11 +242,11 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>TEL:{$TEL$}　FAX:03-5809-1069</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>③ 請求はWisdom Technologyからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="10" spans="1:9" ht="19.8">
       <c r="F10" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1472,7 +1472,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\ebusiness.old\20191114\media\eb_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37CD1E9-DFD5-4060-B670-9446D07C4EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E4A0C-2829-4EF9-B3E6-230E1FBAD9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3336" yWindow="696" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="828" windowWidth="16896" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,10 +150,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>作業報告書査収による毎月末締め、翌々月15日に現金振込</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>① 時間単位30分。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -249,6 +245,10 @@
     <t>③ 請求はWisdom Technologyからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>作業報告書査収による毎月末締め、翌々月{$PAYMENT_DAY$} 日に現金振込</t>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +258,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -294,7 +294,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -332,7 +332,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -673,7 +673,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -980,9 +980,11 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.8"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -1004,17 +1006,17 @@
       <c r="E3" s="47"/>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="19.8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6">
       <c r="A6" s="6"/>
       <c r="F6" s="36" t="s">
         <v>2</v>
@@ -1039,9 +1041,9 @@
       </c>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:9" ht="19.8">
+    <row r="10" spans="1:9" ht="15.6">
       <c r="F10" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1113,7 +1115,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
       <c r="F20" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="41" t="s">
@@ -1159,7 +1161,7 @@
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
@@ -1172,7 +1174,7 @@
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1183,11 +1185,11 @@
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -1200,7 +1202,7 @@
       <c r="A26" s="12"/>
       <c r="B26" s="13"/>
       <c r="C26" s="43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -1213,7 +1215,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1226,7 +1228,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1239,7 +1241,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1282,7 +1284,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
@@ -1295,7 +1297,7 @@
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="42" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
@@ -1308,7 +1310,7 @@
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
       <c r="C34" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
@@ -1321,7 +1323,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1332,11 +1334,11 @@
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1349,7 +1351,7 @@
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1362,7 +1364,7 @@
       <c r="A38" s="12"/>
       <c r="B38" s="13"/>
       <c r="C38" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1375,7 +1377,7 @@
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1388,7 +1390,7 @@
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -1399,7 +1401,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
@@ -1472,7 +1474,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order.xlsx
+++ b/media/eb_order/eb_order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\ebusiness.old\20191114\media\eb_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447E4A0C-2829-4EF9-B3E6-230E1FBAD9D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40B4C5-1876-4758-B4EE-C144B104CF26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="828" windowWidth="16896" windowHeight="12132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -246,7 +246,7 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>作業報告書査収による毎月末締め、翌々月{$PAYMENT_DAY$} 日に現金振込</t>
+    <t>作業報告書査収による毎月末締め、翌々月{$PAYMENT_DAY$}日に現金振込</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -980,7 +980,7 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
